--- a/data/ideogramas por quantidade e hsk.xlsx
+++ b/data/ideogramas por quantidade e hsk.xlsx
@@ -19,7 +19,7 @@
     <t>total</t>
   </si>
   <si>
-    <t>ideograma</t>
+    <t>sinograma</t>
   </si>
   <si>
     <t>不</t>
